--- a/DAILYVOCABS_UPDATED.xlsx
+++ b/DAILYVOCABS_UPDATED.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UPSC VIDEO LECTURES\CURRENT AFFAIRS\HINDU DAILY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UPSC VIDEO LECTURES\CURRENT AFFAIRS\HINDU DAILY\vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB8F96-BBF5-4463-B55B-A4D0A5BC675E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10560"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
   <si>
     <t>SNO.</t>
   </si>
@@ -708,11 +703,50 @@
   <si>
     <t>the condition of being normal; the state of being usual, typical, or expected.</t>
   </si>
+  <si>
+    <t>IMMINENT</t>
+  </si>
+  <si>
+    <t>about to happen</t>
+  </si>
+  <si>
+    <t>REPATRIATE</t>
+  </si>
+  <si>
+    <t>send (someone) back to their own country.;return to one's own country.</t>
+  </si>
+  <si>
+    <t>TRANCHE</t>
+  </si>
+  <si>
+    <t>a portion of something, especially money</t>
+  </si>
+  <si>
+    <t>BATTERED</t>
+  </si>
+  <si>
+    <t>injured by repeated blows or punishment.</t>
+  </si>
+  <si>
+    <t>describe or portray precisely</t>
+  </si>
+  <si>
+    <t>CONTENTION</t>
+  </si>
+  <si>
+    <t>heated disagreement</t>
+  </si>
+  <si>
+    <t>INDISPENSABLE</t>
+  </si>
+  <si>
+    <t>absolutely necessary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1126,11 +1160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2337,6 +2371,83 @@
         <v>218</v>
       </c>
     </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DAILYVOCABS_UPDATED.xlsx
+++ b/DAILYVOCABS_UPDATED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UPSC VIDEO LECTURES\CURRENT AFFAIRS\HINDU DAILY\vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB8F96-BBF5-4463-B55B-A4D0A5BC675E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8984580B-55A5-444A-ACC0-DF537AC42244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="236">
   <si>
     <t>SNO.</t>
   </si>
@@ -741,6 +741,18 @@
   </si>
   <si>
     <t>absolutely necessary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERR </t>
+  </si>
+  <si>
+    <t>be mistaken or incorrect ; make a mistake</t>
+  </si>
+  <si>
+    <t>FLOUT</t>
+  </si>
+  <si>
+    <t>openly disregard(a rule , law or convention)</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,6 +2460,28 @@
         <v>231</v>
       </c>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
